--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.861383102331</v>
+        <v>15.02514266666667</v>
       </c>
       <c r="H2">
-        <v>14.861383102331</v>
+        <v>45.075428</v>
       </c>
       <c r="I2">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="J2">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>2105.408567798449</v>
+        <v>2306.795388906473</v>
       </c>
       <c r="R2">
-        <v>2105.408567798449</v>
+        <v>20761.15850015826</v>
       </c>
       <c r="S2">
-        <v>0.04605902705732782</v>
+        <v>0.04446566670971869</v>
       </c>
       <c r="T2">
-        <v>0.04605902705732782</v>
+        <v>0.04446566670971869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.861383102331</v>
+        <v>15.02514266666667</v>
       </c>
       <c r="H3">
-        <v>14.861383102331</v>
+        <v>45.075428</v>
       </c>
       <c r="I3">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="J3">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>2505.898356826826</v>
+        <v>2536.239614657581</v>
       </c>
       <c r="R3">
-        <v>2505.898356826826</v>
+        <v>22826.15653191823</v>
       </c>
       <c r="S3">
-        <v>0.05482035267895288</v>
+        <v>0.04888842154952035</v>
       </c>
       <c r="T3">
-        <v>0.05482035267895288</v>
+        <v>0.04888842154952034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.861383102331</v>
+        <v>15.02514266666667</v>
       </c>
       <c r="H4">
-        <v>14.861383102331</v>
+        <v>45.075428</v>
       </c>
       <c r="I4">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="J4">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>915.3659961770775</v>
+        <v>1023.066822302796</v>
       </c>
       <c r="R4">
-        <v>915.3659961770775</v>
+        <v>9207.601400725162</v>
       </c>
       <c r="S4">
-        <v>0.02002502879019057</v>
+        <v>0.01972058231131288</v>
       </c>
       <c r="T4">
-        <v>0.02002502879019057</v>
+        <v>0.01972058231131288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.861383102331</v>
+        <v>15.02514266666667</v>
       </c>
       <c r="H5">
-        <v>14.861383102331</v>
+        <v>45.075428</v>
       </c>
       <c r="I5">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="J5">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>1191.614979703935</v>
+        <v>1405.792510099682</v>
       </c>
       <c r="R5">
-        <v>1191.614979703935</v>
+        <v>12652.13259089713</v>
       </c>
       <c r="S5">
-        <v>0.02606839709476986</v>
+        <v>0.02709798255958179</v>
       </c>
       <c r="T5">
-        <v>0.02606839709476986</v>
+        <v>0.02709798255958179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.2286412812546</v>
+        <v>33.26311566666666</v>
       </c>
       <c r="H6">
-        <v>33.2286412812546</v>
+        <v>99.78934699999999</v>
       </c>
       <c r="I6">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="J6">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>4707.493614028531</v>
+        <v>5106.853461748337</v>
       </c>
       <c r="R6">
-        <v>4707.493614028531</v>
+        <v>45961.68115573504</v>
       </c>
       <c r="S6">
-        <v>0.1029836104293342</v>
+        <v>0.09843943899728398</v>
       </c>
       <c r="T6">
-        <v>0.1029836104293342</v>
+        <v>0.09843943899728398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.2286412812546</v>
+        <v>33.26311566666666</v>
       </c>
       <c r="H7">
-        <v>33.2286412812546</v>
+        <v>99.78934699999999</v>
       </c>
       <c r="I7">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="J7">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>5602.950749128017</v>
+        <v>5614.804034300276</v>
       </c>
       <c r="R7">
-        <v>5602.950749128017</v>
+        <v>50533.23630870248</v>
       </c>
       <c r="S7">
-        <v>0.1225731024856678</v>
+        <v>0.1082306675443517</v>
       </c>
       <c r="T7">
-        <v>0.1225731024856678</v>
+        <v>0.1082306675443517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.2286412812546</v>
+        <v>33.26311566666666</v>
       </c>
       <c r="H8">
-        <v>33.2286412812546</v>
+        <v>99.78934699999999</v>
       </c>
       <c r="I8">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="J8">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>2046.671438222704</v>
+        <v>2264.896300817399</v>
       </c>
       <c r="R8">
-        <v>2046.671438222704</v>
+        <v>20384.06670735659</v>
       </c>
       <c r="S8">
-        <v>0.04477406266524882</v>
+        <v>0.04365802208923369</v>
       </c>
       <c r="T8">
-        <v>0.04477406266524882</v>
+        <v>0.04365802208923369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.2286412812546</v>
+        <v>33.26311566666666</v>
       </c>
       <c r="H9">
-        <v>33.2286412812546</v>
+        <v>99.78934699999999</v>
       </c>
       <c r="I9">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="J9">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>2664.33793095213</v>
+        <v>3112.18601408151</v>
       </c>
       <c r="R9">
-        <v>2664.33793095213</v>
+        <v>28009.67412673359</v>
       </c>
       <c r="S9">
-        <v>0.05828646027593094</v>
+        <v>0.05999033408264155</v>
       </c>
       <c r="T9">
-        <v>0.05828646027593094</v>
+        <v>0.05999033408264153</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.2050684941038</v>
+        <v>50.12360066666667</v>
       </c>
       <c r="H10">
-        <v>45.2050684941038</v>
+        <v>150.370802</v>
       </c>
       <c r="I10">
-        <v>0.4470590455229375</v>
+        <v>0.467613402797773</v>
       </c>
       <c r="J10">
-        <v>0.4470590455229375</v>
+        <v>0.4676134027977729</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>6404.191175212603</v>
+        <v>7695.427155561744</v>
       </c>
       <c r="R10">
-        <v>6404.191175212603</v>
+        <v>69258.84440005569</v>
       </c>
       <c r="S10">
-        <v>0.1401014601778018</v>
+        <v>0.1483366495068023</v>
       </c>
       <c r="T10">
-        <v>0.1401014601778018</v>
+        <v>0.1483366495068023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.2050684941038</v>
+        <v>50.12360066666667</v>
       </c>
       <c r="H11">
-        <v>45.2050684941038</v>
+        <v>150.370802</v>
       </c>
       <c r="I11">
-        <v>0.4470590455229375</v>
+        <v>0.467613402797773</v>
       </c>
       <c r="J11">
-        <v>0.4470590455229375</v>
+        <v>0.4676134027977729</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>7622.393291365393</v>
+        <v>8460.84888911607</v>
       </c>
       <c r="R11">
-        <v>7622.393291365393</v>
+        <v>76147.64000204463</v>
       </c>
       <c r="S11">
-        <v>0.1667514914768797</v>
+        <v>0.1630908786249452</v>
       </c>
       <c r="T11">
-        <v>0.1667514914768797</v>
+        <v>0.1630908786249451</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.2050684941038</v>
+        <v>50.12360066666667</v>
       </c>
       <c r="H12">
-        <v>45.2050684941038</v>
+        <v>150.370802</v>
       </c>
       <c r="I12">
-        <v>0.4470590455229375</v>
+        <v>0.467613402797773</v>
       </c>
       <c r="J12">
-        <v>0.4470590455229375</v>
+        <v>0.4676134027977729</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>2784.342632811077</v>
+        <v>3412.932176024216</v>
       </c>
       <c r="R12">
-        <v>2784.342632811077</v>
+        <v>30716.38958421794</v>
       </c>
       <c r="S12">
-        <v>0.06091174635791333</v>
+        <v>0.0657875012980272</v>
       </c>
       <c r="T12">
-        <v>0.06091174635791333</v>
+        <v>0.0657875012980272</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.2050684941038</v>
+        <v>50.12360066666667</v>
       </c>
       <c r="H13">
-        <v>45.2050684941038</v>
+        <v>150.370802</v>
       </c>
       <c r="I13">
-        <v>0.4470590455229375</v>
+        <v>0.467613402797773</v>
       </c>
       <c r="J13">
-        <v>0.4470590455229375</v>
+        <v>0.4676134027977729</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>3624.631462980552</v>
+        <v>4689.698058757916</v>
       </c>
       <c r="R13">
-        <v>3624.631462980552</v>
+        <v>42207.28252882123</v>
       </c>
       <c r="S13">
-        <v>0.07929434751034259</v>
+        <v>0.09039837336799833</v>
       </c>
       <c r="T13">
-        <v>0.07929434751034259</v>
+        <v>0.0903983733679983</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.82145749034122</v>
+        <v>8.778397666666669</v>
       </c>
       <c r="H14">
-        <v>7.82145749034122</v>
+        <v>26.335193</v>
       </c>
       <c r="I14">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858246</v>
       </c>
       <c r="J14">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858243</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>1108.06400046661</v>
+        <v>1347.73876752456</v>
       </c>
       <c r="R14">
-        <v>1108.06400046661</v>
+        <v>12129.64890772104</v>
       </c>
       <c r="S14">
-        <v>0.02424059185439212</v>
+        <v>0.02597894166804399</v>
       </c>
       <c r="T14">
-        <v>0.02424059185439212</v>
+        <v>0.02597894166804399</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.82145749034122</v>
+        <v>8.778397666666669</v>
       </c>
       <c r="H15">
-        <v>7.82145749034122</v>
+        <v>26.335193</v>
       </c>
       <c r="I15">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858246</v>
       </c>
       <c r="J15">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858243</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>1318.839393216552</v>
+        <v>1481.790916023094</v>
       </c>
       <c r="R15">
-        <v>1318.839393216552</v>
+        <v>13336.11824420785</v>
       </c>
       <c r="S15">
-        <v>0.02885162539257131</v>
+        <v>0.02856292383894785</v>
       </c>
       <c r="T15">
-        <v>0.02885162539257131</v>
+        <v>0.02856292383894784</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.82145749034122</v>
+        <v>8.778397666666669</v>
       </c>
       <c r="H16">
-        <v>7.82145749034122</v>
+        <v>26.335193</v>
       </c>
       <c r="I16">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858246</v>
       </c>
       <c r="J16">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858243</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>481.7516766713248</v>
+        <v>597.7239354719123</v>
       </c>
       <c r="R16">
-        <v>481.7516766713248</v>
+        <v>5379.515419247211</v>
       </c>
       <c r="S16">
-        <v>0.0105390534882832</v>
+        <v>0.01152169517371662</v>
       </c>
       <c r="T16">
-        <v>0.0105390534882832</v>
+        <v>0.01152169517371662</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.82145749034122</v>
+        <v>8.778397666666669</v>
       </c>
       <c r="H17">
-        <v>7.82145749034122</v>
+        <v>26.335193</v>
       </c>
       <c r="I17">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858246</v>
       </c>
       <c r="J17">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858243</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>627.1398728121259</v>
+        <v>821.3303503502965</v>
       </c>
       <c r="R17">
-        <v>627.1398728121259</v>
+        <v>7391.973153152668</v>
       </c>
       <c r="S17">
-        <v>0.01371964226439304</v>
+        <v>0.015831920677874</v>
       </c>
       <c r="T17">
-        <v>0.01371964226439304</v>
+        <v>0.01583192067787399</v>
       </c>
     </row>
   </sheetData>
